--- a/research_pp_qa/output/excluded_counts.xlsx
+++ b/research_pp_qa/output/excluded_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>no_author_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>no_authors</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>no_publication_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>no_tags</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
@@ -483,16 +488,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>338</v>
+      </c>
+      <c r="E2" t="n">
         <v>21</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>112</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>68</v>
       </c>
-      <c r="G2" t="n">
-        <v>215</v>
+      <c r="H2" t="n">
+        <v>553</v>
       </c>
     </row>
     <row r="3">
@@ -508,122 +516,137 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>32</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>11</v>
       </c>
-      <c r="G3" t="n">
-        <v>50</v>
+      <c r="H3" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bank of America</t>
+          <t>Citigroup</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
-        <v>21</v>
-      </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Capital One</t>
+          <t>Bank of America</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TD Bank</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Citigroup</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>US Bank</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -633,51 +656,57 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>TD Bank</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>16</v>
+      <c r="H9" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>US Bank</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -686,23 +715,26 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -711,19 +743,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -733,22 +768,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>Intesa Sanpaolo</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -761,13 +799,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -786,37 +827,43 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BBVA</t>
+          <t>BNP Paribas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -833,47 +880,53 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>6</v>
       </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CommBank</t>
+          <t>BBVA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
         <v>6</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8</v>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>PNC Financial</t>
+          <t>CommBank</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -883,15 +936,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -908,26 +964,29 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
         <v>5</v>
       </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>UBS</t>
+          <t>PNC Financial</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -936,23 +995,26 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
         <v>4</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6</v>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Standard Chartered</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -961,19 +1023,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>4</v>
       </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BNY</t>
+          <t>Standard Chartered</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -986,13 +1051,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1011,19 +1079,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>State Street</t>
+          <t>BNY</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1036,19 +1107,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BNP Paribas</t>
+          <t>State Street</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1061,19 +1135,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ABN AMRO</t>
+          <t>Scotiabank</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1086,19 +1163,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>3</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Scotiabank</t>
+          <t>ABN AMRO</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1111,19 +1191,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>3</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Nordea</t>
+          <t>NatWest</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1133,22 +1216,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Rabobank</t>
+          <t>Crédit Mutuel</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1158,22 +1244,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>UniCredit</t>
+          <t>Nordea</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1186,19 +1275,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Raiffeisen Bank Intl</t>
+          <t>Rabobank</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1211,19 +1303,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ANZ</t>
+          <t>UniCredit</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1236,19 +1331,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Crédit Agricole</t>
+          <t>Raiffeisen Bank Intl</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1261,19 +1359,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Commerzbank</t>
+          <t>ANZ</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1286,19 +1387,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>NatWest</t>
+          <t>Citizens Financial</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1311,19 +1415,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>Commerzbank</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1336,19 +1443,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Citizens Financial</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1367,13 +1477,16 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Groupe BPCE</t>
+          <t>Crédit Agricole</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1386,19 +1499,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>First Citizens</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1408,22 +1524,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Groupe BPCE</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1436,19 +1555,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Truist Bank</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1461,37 +1583,99 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Truist Bank</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
           <t>Westpac</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>1</v>
       </c>
     </row>
